--- a/data/Data_temp.xlsx
+++ b/data/Data_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Dhruv\GenerativeAI\gen\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDA1870A-2AE5-4BED-B2AE-CDCCCC14C9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A65898-9C15-45F3-8B44-2836CD4F6074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E143F0D4-3E15-4FB4-8302-6A778398A6FB}"/>
   </bookViews>
